--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
-    <sheet name="DeleteManageListings" sheetId="4" r:id="rId3"/>
-    <sheet name="UpdateManageListings" sheetId="3" r:id="rId4"/>
+    <sheet name="SignUp" sheetId="5" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="DeleteManageListings" sheetId="4" r:id="rId4"/>
+    <sheet name="UpdateManageListings" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>UserName</t>
   </si>
@@ -125,6 +126,24 @@
   </si>
   <si>
     <t>Would like to provide selenium training</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>Bansal</t>
   </si>
 </sst>
 </file>
@@ -180,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -249,6 +268,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -260,7 +290,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -281,6 +311,7 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,9 +618,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -631,7 +731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -756,7 +856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -789,7 +889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -9,16 +9,22 @@
   <sheets>
     <sheet name="SignUp" sheetId="5" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
-    <sheet name="DeleteManageListings" sheetId="4" r:id="rId4"/>
-    <sheet name="UpdateManageListings" sheetId="3" r:id="rId5"/>
+    <sheet name="ChangePassword" sheetId="10" r:id="rId3"/>
+    <sheet name="Profile" sheetId="6" r:id="rId4"/>
+    <sheet name="Education" sheetId="7" r:id="rId5"/>
+    <sheet name="UpdateProfile" sheetId="9" r:id="rId6"/>
+    <sheet name="DeleteProfile" sheetId="8" r:id="rId7"/>
+    <sheet name="SearchSkills" sheetId="11" r:id="rId8"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId9"/>
+    <sheet name="DeleteManageListings" sheetId="4" r:id="rId10"/>
+    <sheet name="UpdateManageListings" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>UserName</t>
   </si>
@@ -144,6 +150,129 @@
   </si>
   <si>
     <t>Bansal</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Less than 30hours a week</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>I am a Test Analyst</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>LanguageLevel</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Certification</t>
+  </si>
+  <si>
+    <t>CertifiedFrom</t>
+  </si>
+  <si>
+    <t>CertifiedYear</t>
+  </si>
+  <si>
+    <t>ISTQB</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>M.Tech</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>EducationTitle</t>
+  </si>
+  <si>
+    <t>Fluent</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>mvp@1234</t>
+  </si>
+  <si>
+    <t>mvp1@2020</t>
+  </si>
+  <si>
+    <t>mvp@2345</t>
+  </si>
+  <si>
+    <t>seema6.mvp@gmail.com</t>
+  </si>
+  <si>
+    <t>Expert</t>
   </si>
 </sst>
 </file>
@@ -290,16 +419,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +438,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,9 +762,9 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +783,7 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -663,13 +798,13 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -683,13 +818,175 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44018</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44042</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10">
+        <v>44018.3125</v>
+      </c>
+      <c r="M2" s="10">
+        <v>44042.479166666664</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -710,7 +1007,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -733,11 +1030,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -757,96 +1437,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>44018</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="9">
         <v>44042</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <v>44018.3125</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="10">
         <v>44042.479166666664</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -854,167 +1534,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="11">
-        <v>44018</v>
-      </c>
-      <c r="J2" s="12">
-        <v>44042</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="13">
-        <v>44018.3125</v>
-      </c>
-      <c r="M2" s="13">
-        <v>44042.479166666664</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>